--- a/res/page/月票管理/ParkCustomerInfoPage.xlsx
+++ b/res/page/月票管理/ParkCustomerInfoPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>别名</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>//*[@id='app']//label[contains(text(),'备注3')]/following-sibling::*[1]//textarea</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
   </si>
 </sst>
 </file>
@@ -200,6 +206,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -207,23 +229,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,41 +266,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,6 +297,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -290,14 +312,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -306,14 +329,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -321,24 +336,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,19 +365,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,61 +491,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,72 +533,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -528,18 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +589,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -594,6 +609,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,20 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,30 +671,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,149 +679,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +839,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1182,10 +1191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1294,7 +1303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1" spans="1:3">
+    <row r="10" ht="25" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="27" customHeight="1" spans="1:3">
+    <row r="11" ht="25" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="27" customHeight="1" spans="1:3">
+    <row r="12" ht="25" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="27" customHeight="1" spans="1:3">
+    <row r="13" ht="25" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="1:3">
+    <row r="14" ht="25" customHeight="1" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1349,7 +1358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="1:3">
+    <row r="15" ht="25" customHeight="1" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:3">
+    <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="22" customHeight="1" spans="1:3">
+    <row r="17" ht="25" customHeight="1" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="22" customHeight="1" spans="1:3">
+    <row r="18" ht="25" customHeight="1" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" ht="22" customHeight="1" spans="1:3">
+    <row r="19" ht="25" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -1404,7 +1413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" ht="22" customHeight="1" spans="1:3">
+    <row r="20" ht="25" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1415,7 +1424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" ht="22" customHeight="1" spans="1:3">
+    <row r="21" ht="25" customHeight="1" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" ht="22" customHeight="1" spans="1:3">
+    <row r="22" ht="25" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="22" customHeight="1" spans="1:3">
+    <row r="23" ht="25" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" ht="22" customHeight="1" spans="1:3">
+    <row r="24" ht="25" customHeight="1" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="22" customHeight="1" spans="1:3">
+    <row r="25" ht="25" customHeight="1" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1468,6 +1477,17 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="25" customHeight="1" spans="1:3">
+      <c r="A26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
